--- a/biology/Botanique/Lentibulariaceae/Lentibulariaceae.xlsx
+++ b/biology/Botanique/Lentibulariaceae/Lentibulariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Lentibulariacées se compose de plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend 245 espèces réparties en deux à quatre genres.
 Ce sont des plantes insectivores, herbacées, annuelles ou vivaces, terrestres ou aquatiques, des régions froides à tropicales.
@@ -516,20 +528,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’étymologie des Lentibulariaceae est un cas exemplaire du fait que cette famille porte un nom synonyme, Utriculariaceae, lequel n'a pas été retenu comme nom d'usage pour ce taxon.
-La famille des Lentibulariaceae
-Le nom de famille Lentibulariaceae dérive de l’hypothétique genre type  Lentibularia dont l’étymologie est incertaine. Ce nom remonte au XVIe siècle et fut donné par le polygraphe suisse Conrad Gessner (1516-1535). Le nom fut repris par le botaniste français Louis Claude Richard en 1808.
-En 1856, le botaniste autrichien Richard Wettstein interprète Lentibularia comme  issu du latin de lenticula ; lens ; lentis, lentille, et tubulus ; tubuli, « tube ; tuyau », en référence aux « tuyaux lenticulaires » qui garnissent les feuilles de la plante. Mais cette origine est problématique du fait que cette origine latine aurait dû conduire à nommer le genre Lentitubularia ou au minimum Lentubularia[1].
-D’après Casper, le nom Lentibularia doit être plutôt interprété comme issu du latin lens, lentille, et bulla, « bulle d’eau », en référence aux vessies en forme de lentille qui se remplissent d’eau pour piéger les insectes[1].
-Le genre Lentibularia
-Reste à expliquer pourquoi la famille des Lentibulariaceae ne renferme le genre type Lentibularia. Casper nous en explique ainsi la logique : 
-« Lorsque Linné a écrit sa Flora Lapponica en 1737, il trouva un genre clairement caractérisé, le Lentibularia que Conrad Gessner avait nommé.
-Néanmoins, il se sentit obligé de créer le nouveau nom générique Utricularia. En effet, le nom Lentibularia qui aurait trop ressemblé à des noms déjà attribués, Lenticula ou Lenticularia[note 1], aurait pu conduire à des confusions [1],[2]. »
- Ce fut donc le nom de genre Utricularia, donné par Linné en 1753 dans son Species plantarum et en 1754 dans son Genera plantarurn[1] qui devint le seul nom valide, privant ainsi la famille des Lentibulariaceae de son genre type[note 2].
-Le genre Utricularia
-Le nom Utriculariaceae vient de son genre type Utricularia, issu du latin utriculus, « petite outre ; petit ventre », en référence aux pièges à insectes que forment les outres de la plante en se remplissant d’eau. C’est ce nom de famille que privilégie Paul-Victor Fournier dans ses Quatre flores de la France.
 </t>
         </is>
       </c>
@@ -555,12 +558,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>Étymologie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pour la classification phylogénétique, cette famille est située dans l'ordre des Lamiales.
+          <t>La famille des Lentibulariaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de famille Lentibulariaceae dérive de l’hypothétique genre type  Lentibularia dont l’étymologie est incertaine. Ce nom remonte au XVIe siècle et fut donné par le polygraphe suisse Conrad Gessner (1516-1535). Le nom fut repris par le botaniste français Louis Claude Richard en 1808.
+En 1856, le botaniste autrichien Richard Wettstein interprète Lentibularia comme  issu du latin de lenticula ; lens ; lentis, lentille, et tubulus ; tubuli, « tube ; tuyau », en référence aux « tuyaux lenticulaires » qui garnissent les feuilles de la plante. Mais cette origine est problématique du fait que cette origine latine aurait dû conduire à nommer le genre Lentitubularia ou au minimum Lentubularia.
+D’après Casper, le nom Lentibularia doit être plutôt interprété comme issu du latin lens, lentille, et bulla, « bulle d’eau », en référence aux vessies en forme de lentille qui se remplissent d’eau pour piéger les insectes.
 </t>
         </is>
       </c>
@@ -586,53 +597,168 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le genre Lentibularia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Reste à expliquer pourquoi la famille des Lentibulariaceae ne renferme le genre type Lentibularia. Casper nous en explique ainsi la logique : 
+« Lorsque Linné a écrit sa Flora Lapponica en 1737, il trouva un genre clairement caractérisé, le Lentibularia que Conrad Gessner avait nommé.
+Néanmoins, il se sentit obligé de créer le nouveau nom générique Utricularia. En effet, le nom Lentibularia qui aurait trop ressemblé à des noms déjà attribués, Lenticula ou Lenticularia[note 1], aurait pu conduire à des confusions ,. »
+ Ce fut donc le nom de genre Utricularia, donné par Linné en 1753 dans son Species plantarum et en 1754 dans son Genera plantarurn qui devint le seul nom valide, privant ainsi la famille des Lentibulariaceae de son genre type[note 2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lentibulariaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lentibulariaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le genre Utricularia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Utriculariaceae vient de son genre type Utricularia, issu du latin utriculus, « petite outre ; petit ventre », en référence aux pièges à insectes que forment les outres de la plante en se remplissant d’eau. C’est ce nom de famille que privilégie Paul-Victor Fournier dans ses Quatre flores de la France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lentibulariaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lentibulariaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la classification phylogénétique, cette famille est située dans l'ordre des Lamiales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lentibulariaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lentibulariaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[3] et NCBI  (12 nov. 2015)[4] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) et NCBI  (12 nov. 2015) :
 Genlisea A.St.-Hil.
 Pinguicula L.
 Utricularia L.
-Selon DELTA Angio           (12 nov. 2015)[5] :
+Selon DELTA Angio           (12 nov. 2015) :
 Genlisea
 Pinguicula
 Polypompholyx
 Utricularia
-Selon ITIS      (12 nov. 2015)[6] :
+Selon ITIS      (12 nov. 2015) :
 Pinguicula L.
 Utricularia L.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Lentibulariaceae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lentibulariaceae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (7 juillet 2010)[7] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (7 juillet 2010) :
 genre Genlisea
 Genlisea africana
 Genlisea aurea
